--- a/pred_ohlcv/54_21/2020-01-22 SOC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 SOC ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>6256692.845053045</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>5767698.687653045</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -678,7 +678,7 @@
         <v>4951034.196653046</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -834,7 +834,7 @@
         <v>4789913.465103894</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>3743012.505850979</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>3804045.200350979</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>3793626.868543826</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>3769264.957643826</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>3769264.957643826</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>3428153.462843826</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>3444747.185543826</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>3444747.185543826</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>3444747.185543826</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>3444747.185543826</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>3444747.185543826</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>3429289.432743826</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>3482668.767854406</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>3433800.811654406</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>3404062.359254406</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>3422914.307654406</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>3221677.462254406</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>3590146.180854407</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>3600639.741454407</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>3634081.506354406</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>3519470.352654406</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>3548369.641554406</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>3616101.898354406</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>4061052.637954406</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>3995526.193254407</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>4092356.520654406</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>3781171.418210144</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>3781171.418210144</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>3781171.418210144</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>3866153.824510144</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>3885134.178910144</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>3817441.290110144</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>4547102.721477575</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>4540320.730877575</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>4532807.546877574</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>4541431.135277574</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>4534063.922577574</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>4527819.912677574</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>4611358.284175027</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>4475165.626175027</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>4547048.405375027</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>4531872.418375027</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>4531872.418375027</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>4531872.418375027</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>4531872.418375027</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>4531872.418375027</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>4511585.135375028</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>4490466.102275028</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>4497956.854575028</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>4482423.393675027</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>4457705.677275027</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>4457705.677275027</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>4463597.412175027</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>4456271.979375027</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>4464042.051475028</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>4456107.572675028</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>4468090.207975028</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>4458562.677775028</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>4653360.582575028</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>4647056.995875028</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>4639375.034975028</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>4626652.984575028</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>4626652.984575028</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>4626652.984575028</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>4639548.072075028</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>4581343.380175028</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>4634176.636875028</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>4644214.637075027</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>4663159.671892947</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>4663159.671892947</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>4627985.921092947</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>4663691.347592947</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>4632332.243992947</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>4720892.618092947</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>4763241.167099324</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>4679720.104299324</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>4806445.243599324</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>4779652.329899323</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>5080244.616599323</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>4741025.886599323</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>4741025.886599323</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>4872826.949399323</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>4872826.949399323</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>4752926.115799324</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>4752926.115799324</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>4669554.977399324</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>4552224.571599324</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>4577616.874599325</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>4552679.276799325</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>4536309.230799325</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>4574836.713099325</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>4596159.638499325</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>4492669.280899325</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>4514291.935499325</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>4514291.935499325</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>4591114.937699325</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>4671552.609099326</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>4361386.507699326</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>4376098.531099326</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>4376098.531099326</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>4376098.531099326</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>4409699.570299326</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>4369969.961899325</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>4413790.742299325</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>4675328.232299325</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>4864084.504799325</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>4734560.363699325</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>4759058.193999325</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>5303952.888299325</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>5919846.89138364</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>6236226.337399324</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>6642927.324099325</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>6459072.312304243</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>7144683.278678013</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>6987408.842980964</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>6850695.868380964</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>7054549.000580964</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>7054549.000580964</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>6991100.857480964</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>7110697.092380963</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>7199210.511480963</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>7416608.309980962</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>6314201.090629219</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>6702451.672984915</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>6598994.778141739</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>7550077.876277477</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>7757693.599777477</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>9690199.774377476</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>11365360.6694031</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>11187380.1522031</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>11685682.33615125</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>11214706.99515125</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>11203311.38795125</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>11190658.08015124</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>11256044.71205124</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>11619723.35211564</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>12227539.28815125</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>12404210.38653876</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>12322494.32853997</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>12322494.32853997</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>12175314.96633997</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>11986107.23073997</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>11693962.14393997</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>11746030.26223996</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>11894851.79206263</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>11833439.57396263</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>11861759.96326263</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>11878158.29106263</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>11789375.03966263</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>11898459.47836263</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>11601070.10506263</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>11045763.36556263</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>11343835.91203693</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>11018947.23254324</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>11208336.48134324</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>10987095.97414324</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>10667436.49264324</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>10577402.83534324</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>10675625.19014324</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>10712657.37794324</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>10643696.96714324</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>10534246.21054324</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>10859308.19674324</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>10859308.19674324</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>10815765.47054324</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>10988554.10794324</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>11021060.90164324</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>10843914.88674324</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>11066958.92644324</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>11066958.92644324</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>11053118.97724324</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>9846771.265143242</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>9885758.242543241</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>9748143.42054324</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>9571182.566043241</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>9455887.537343241</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>8667182.713143241</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>8561015.447618345</v>
       </c>
       <c r="H601">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>8561015.447618345</v>
       </c>
       <c r="H603">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>8373731.905818345</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>8789461.622918345</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>8743658.301718345</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>8733242.484218344</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>8820260.482318344</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>8797364.008618344</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>8517324.538118344</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>8477215.862518344</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>8431275.481118344</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>8550952.208218344</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>8662519.206218343</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>8530768.036118343</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>8552553.162018344</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>8567953.241818344</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>8493612.363018345</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>8469749.081318345</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>8461382.218318345</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>8540189.291218344</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>8517138.488218345</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>8530728.055018345</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>8578298.896518344</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>9431016.931518344</v>
       </c>
       <c r="H642">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>9387482.301018344</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>9237116.681018345</v>
       </c>
       <c r="H644">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>9284389.530218344</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>9234361.314318344</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>5797009.803118344</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>5846885.587618344</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>5859482.300218345</v>
       </c>
       <c r="H649">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>5836977.748618345</v>
       </c>
       <c r="H650">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>5822208.292118344</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>6216419.185318344</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>6170566.060318344</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>6159700.831518345</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>6044802.141518344</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>6158281.226218345</v>
       </c>
       <c r="H658">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>7329907.936818345</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>7460934.724018345</v>
       </c>
       <c r="H662">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>7464680.877718344</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>7494578.226518344</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>7563219.118218344</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>7538771.915418344</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>7435707.975518344</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>7435707.975518344</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>7435707.975518344</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>7315219.347618344</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>7389915.630318345</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>7369471.730018345</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>7473410.135818345</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>7390267.294718345</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>7390267.294718345</v>
       </c>
       <c r="H677">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>7390267.294718345</v>
       </c>
       <c r="H678">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>7044589.617518346</v>
       </c>
       <c r="H714">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>6963372.974718346</v>
       </c>
       <c r="H717">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>6963372.974718346</v>
       </c>
       <c r="H718">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>6986657.566218346</v>
       </c>
       <c r="H719">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>6980939.390218346</v>
       </c>
       <c r="H720">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>6942011.287118346</v>
       </c>
       <c r="H721">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>6942011.287118346</v>
       </c>
       <c r="H722">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>6898327.991818346</v>
       </c>
       <c r="H723">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>7304708.621642828</v>
       </c>
       <c r="H765">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>7358801.404842828</v>
       </c>
       <c r="H766">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>7358801.404842828</v>
       </c>
       <c r="H767">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>7329608.400842829</v>
       </c>
       <c r="H768">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>7357619.815542828</v>
       </c>
       <c r="H769">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>7343859.883142828</v>
       </c>
       <c r="H770">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>7326943.956842828</v>
       </c>
       <c r="H771">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>7311450.585042828</v>
       </c>
       <c r="H772">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>7311450.585042828</v>
       </c>
       <c r="H773">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>7323798.560142828</v>
       </c>
       <c r="H774">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>7312430.379443501</v>
       </c>
       <c r="H775">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>7301106.478143501</v>
       </c>
       <c r="H776">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>7367820.471943501</v>
       </c>
       <c r="H777">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>7367820.471943501</v>
       </c>
       <c r="H778">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>7358769.672243501</v>
       </c>
       <c r="H779">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>7317677.191443501</v>
       </c>
       <c r="H780">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>7268821.179443501</v>
       </c>
       <c r="H781">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>7268821.179443501</v>
       </c>
       <c r="H782">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>7268821.179443501</v>
       </c>
       <c r="H783">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>7268821.179443501</v>
       </c>
       <c r="H784">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>7268821.179443501</v>
       </c>
       <c r="H785">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>7268821.179443501</v>
       </c>
       <c r="H786">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>7279687.552443501</v>
       </c>
       <c r="H787">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>7260850.854843501</v>
       </c>
       <c r="H788">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>7266369.667643501</v>
       </c>
       <c r="H789">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>7266369.667643501</v>
       </c>
       <c r="H790">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>7266369.667643501</v>
       </c>
       <c r="H791">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>7266369.667643501</v>
       </c>
       <c r="H792">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>7266369.667643501</v>
       </c>
       <c r="H793">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>7266369.667643501</v>
       </c>
       <c r="H794">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>7266369.667643501</v>
       </c>
       <c r="H795">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>7246478.069243502</v>
       </c>
       <c r="H796">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>7263901.455843502</v>
       </c>
       <c r="H797">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>7263901.455843502</v>
       </c>
       <c r="H798">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>7247814.901943502</v>
       </c>
       <c r="H799">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>7267714.102043502</v>
       </c>
       <c r="H800">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>7280687.488543502</v>
       </c>
       <c r="H801">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>7273538.498343502</v>
       </c>
       <c r="H802">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>6425316.929519524</v>
       </c>
       <c r="H911">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>6399914.654619524</v>
       </c>
       <c r="H912">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>6271717.148619524</v>
       </c>
       <c r="H913">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>6148471.712919524</v>
       </c>
       <c r="H914">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>6173659.070219524</v>
       </c>
       <c r="H928">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>6173659.070219524</v>
       </c>
       <c r="H930">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -24650,7 +24650,7 @@
         <v>6173659.070219524</v>
       </c>
       <c r="H933">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>6173659.070219524</v>
       </c>
       <c r="H934">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="935" spans="1:8">
@@ -24702,7 +24702,7 @@
         <v>6234227.233119524</v>
       </c>
       <c r="H935">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="936" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>6213331.522219524</v>
       </c>
       <c r="H936">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -24754,7 +24754,7 @@
         <v>6258195.479519524</v>
       </c>
       <c r="H937">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -24780,7 +24780,7 @@
         <v>6262905.861319523</v>
       </c>
       <c r="H938">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>6542215.940757119</v>
       </c>
       <c r="H939">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>6505754.854294715</v>
       </c>
       <c r="H940">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -24858,7 +24858,7 @@
         <v>6505754.854294715</v>
       </c>
       <c r="H941">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>6505754.854294715</v>
       </c>
       <c r="H942">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>6500363.855594715</v>
       </c>
       <c r="H943">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -24936,7 +24936,7 @@
         <v>6271158.408194715</v>
       </c>
       <c r="H944">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="945" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>6254342.976394715</v>
       </c>
       <c r="H945">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -32606,7 +32606,7 @@
         <v>3453248.038807133</v>
       </c>
       <c r="H1239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1240" spans="1:8">
@@ -32632,7 +32632,7 @@
         <v>3516943.855707133</v>
       </c>
       <c r="H1240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1241" spans="1:8">
@@ -32658,7 +32658,7 @@
         <v>3533574.986307133</v>
       </c>
       <c r="H1241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1242" spans="1:8">
@@ -32684,7 +32684,7 @@
         <v>3546442.352007133</v>
       </c>
       <c r="H1242">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1243" spans="1:8">
@@ -32710,7 +32710,7 @@
         <v>3529198.642907133</v>
       </c>
       <c r="H1243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1244" spans="1:8">
@@ -32736,7 +32736,7 @@
         <v>3511857.714107133</v>
       </c>
       <c r="H1244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1245" spans="1:8">
@@ -32762,7 +32762,7 @@
         <v>3619419.288607133</v>
       </c>
       <c r="H1245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1246" spans="1:8">
@@ -32788,7 +32788,7 @@
         <v>3375371.530607133</v>
       </c>
       <c r="H1246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1247" spans="1:8">
@@ -32814,7 +32814,7 @@
         <v>3166562.424207133</v>
       </c>
       <c r="H1247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1248" spans="1:8">
@@ -33308,7 +33308,7 @@
         <v>3524000.177607133</v>
       </c>
       <c r="H1266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1267" spans="1:8">
@@ -33334,7 +33334,7 @@
         <v>3524000.177607133</v>
       </c>
       <c r="H1267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1268" spans="1:8">
@@ -33360,7 +33360,7 @@
         <v>3467588.713007133</v>
       </c>
       <c r="H1268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1269" spans="1:8">
@@ -33386,7 +33386,7 @@
         <v>3528106.473007133</v>
       </c>
       <c r="H1269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1270" spans="1:8">
@@ -33412,7 +33412,7 @@
         <v>3414106.021707133</v>
       </c>
       <c r="H1270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1271" spans="1:8">
@@ -33464,7 +33464,7 @@
         <v>3399391.547707133</v>
       </c>
       <c r="H1272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1273" spans="1:8">
@@ -33516,7 +33516,7 @@
         <v>3399391.547707133</v>
       </c>
       <c r="H1274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1275" spans="1:8">
@@ -33542,7 +33542,7 @@
         <v>3442961.448907133</v>
       </c>
       <c r="H1275">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1276" spans="1:8">
@@ -33568,7 +33568,7 @@
         <v>3418605.915307133</v>
       </c>
       <c r="H1276">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1277" spans="1:8">
@@ -33594,7 +33594,7 @@
         <v>3393284.438507133</v>
       </c>
       <c r="H1277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1278" spans="1:8">
@@ -33620,7 +33620,7 @@
         <v>3409563.351407133</v>
       </c>
       <c r="H1278">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1279" spans="1:8">
@@ -33646,7 +33646,7 @@
         <v>3694453.172307133</v>
       </c>
       <c r="H1279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1280" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-22 SOC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 SOC ohlcv.xlsx
@@ -678,7 +678,7 @@
         <v>4951034.196653046</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -834,7 +834,7 @@
         <v>4789913.465103894</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>3743012.505850979</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>3804045.200350979</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>3793626.868543826</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>3769264.957643826</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>3769264.957643826</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>3428153.462843826</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>3444747.185543826</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>3444747.185543826</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>3444747.185543826</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>3444747.185543826</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>3444747.185543826</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>3429289.432743826</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>3482668.767854406</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>3433800.811654406</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>3404062.359254406</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>3422914.307654406</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>3221677.462254406</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>3590146.180854407</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>3600639.741454407</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>3634081.506354406</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>3519470.352654406</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>3548369.641554406</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>3616101.898354406</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>4061052.637954406</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>3995526.193254407</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>4092356.520654406</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>3781171.418210144</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>3781171.418210144</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>3781171.418210144</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>3866153.824510144</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>3885134.178910144</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>3817441.290110144</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>4547102.721477575</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>4540320.730877575</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>4532807.546877574</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>4541431.135277574</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>4534063.922577574</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>4527819.912677574</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>4611358.284175027</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>4475165.626175027</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>4547048.405375027</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>4531872.418375027</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>4531872.418375027</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>4531872.418375027</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>4531872.418375027</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>4531872.418375027</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>4511585.135375028</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>4490466.102275028</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>4497956.854575028</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>4482423.393675027</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>4457705.677275027</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>4457705.677275027</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>4463597.412175027</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>4456271.979375027</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>4464042.051475028</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>4456107.572675028</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>4468090.207975028</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>4458562.677775028</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>4653360.582575028</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>4647056.995875028</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>4639375.034975028</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>4626652.984575028</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>4626652.984575028</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>4626652.984575028</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>4639548.072075028</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>4581343.380175028</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>4634176.636875028</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>4644214.637075027</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>4663159.671892947</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>4663159.671892947</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>4627985.921092947</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>4663691.347592947</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>4632332.243992947</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>4720892.618092947</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>4763241.167099324</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>4679720.104299324</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>4806445.243599324</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>4779652.329899323</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>5080244.616599323</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>4741025.886599323</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>4741025.886599323</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>4872826.949399323</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>4872826.949399323</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>4752926.115799324</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>4752926.115799324</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>4669554.977399324</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>4552224.571599324</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>4577616.874599325</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>4552679.276799325</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>4536309.230799325</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>4574836.713099325</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>4596159.638499325</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>4492669.280899325</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>4514291.935499325</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>4514291.935499325</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>4591114.937699325</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>4671552.609099326</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>4361386.507699326</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>4376098.531099326</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>4376098.531099326</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>4376098.531099326</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>4409699.570299326</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>4369969.961899325</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>4413790.742299325</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>4675328.232299325</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>4864084.504799325</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>4734560.363699325</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>4759058.193999325</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>5303952.888299325</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>5919846.89138364</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>6236226.337399324</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>6642927.324099325</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>6459072.312304243</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>7144683.278678013</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>6987408.842980964</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>6850695.868380964</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>7054549.000580964</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>7054549.000580964</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>6991100.857480964</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>7110697.092380963</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>7199210.511480963</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>7416608.309980962</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>6314201.090629219</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>6702451.672984915</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>6598994.778141739</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>7550077.876277477</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>7757693.599777477</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>9690199.774377476</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>11365360.6694031</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>11187380.1522031</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>11861005.3366031</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>11586588.29395003</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>11685682.33615125</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>11214706.99515125</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>11203311.38795125</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>11190658.08015124</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>11190658.08015124</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>11256044.71205124</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>11619723.35211564</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>12227539.28815125</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>12404210.38653876</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>12322494.32853997</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>12322494.32853997</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>12175314.96633997</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>11986107.23073997</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>11693962.14393997</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>11894851.79206263</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>11861759.96326263</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>11878158.29106263</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>11789375.03966263</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>11601070.10506263</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>11343835.91203693</v>
       </c>
       <c r="H525">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>11018947.23254324</v>
       </c>
       <c r="H526">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>11208336.48134324</v>
       </c>
       <c r="H527">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>10987095.97414324</v>
       </c>
       <c r="H528">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>10667436.49264324</v>
       </c>
       <c r="H529">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>10577402.83534324</v>
       </c>
       <c r="H530">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>10675625.19014324</v>
       </c>
       <c r="H531">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>10712657.37794324</v>
       </c>
       <c r="H532">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>10643696.96714324</v>
       </c>
       <c r="H533">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>10534246.21054324</v>
       </c>
       <c r="H534">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>10859308.19674324</v>
       </c>
       <c r="H535">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>10859308.19674324</v>
       </c>
       <c r="H536">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>10815765.47054324</v>
       </c>
       <c r="H537">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>10988554.10794324</v>
       </c>
       <c r="H538">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>11021060.90164324</v>
       </c>
       <c r="H539">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>10843914.88674324</v>
       </c>
       <c r="H540">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>11066958.92644324</v>
       </c>
       <c r="H541">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>11066958.92644324</v>
       </c>
       <c r="H542">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>11053118.97724324</v>
       </c>
       <c r="H543">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>9846771.265143242</v>
       </c>
       <c r="H547">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>9885758.242543241</v>
       </c>
       <c r="H548">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>9748143.42054324</v>
       </c>
       <c r="H549">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>9571182.566043241</v>
       </c>
       <c r="H550">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>9455887.537343241</v>
       </c>
       <c r="H551">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>8667182.713143241</v>
       </c>
       <c r="H567">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>8561015.447618345</v>
       </c>
       <c r="H601">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>8561015.447618345</v>
       </c>
       <c r="H603">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>8373731.905818345</v>
       </c>
       <c r="H604">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>8789461.622918345</v>
       </c>
       <c r="H620">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>8743658.301718345</v>
       </c>
       <c r="H621">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>8733242.484218344</v>
       </c>
       <c r="H622">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>8820260.482318344</v>
       </c>
       <c r="H623">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>8797364.008618344</v>
       </c>
       <c r="H624">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>8517324.538118344</v>
       </c>
       <c r="H625">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>8477215.862518344</v>
       </c>
       <c r="H626">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>8431275.481118344</v>
       </c>
       <c r="H627">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>8550952.208218344</v>
       </c>
       <c r="H628">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>8662519.206218343</v>
       </c>
       <c r="H629">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>8530768.036118343</v>
       </c>
       <c r="H630">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>8552553.162018344</v>
       </c>
       <c r="H631">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>8567953.241818344</v>
       </c>
       <c r="H632">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>8493612.363018345</v>
       </c>
       <c r="H633">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>8469749.081318345</v>
       </c>
       <c r="H634">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>8461382.218318345</v>
       </c>
       <c r="H635">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>8540189.291218344</v>
       </c>
       <c r="H636">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>8517138.488218345</v>
       </c>
       <c r="H637">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>8530728.055018345</v>
       </c>
       <c r="H638">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>8578298.896518344</v>
       </c>
       <c r="H639">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>9431016.931518344</v>
       </c>
       <c r="H642">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>9387482.301018344</v>
       </c>
       <c r="H643">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>9237116.681018345</v>
       </c>
       <c r="H644">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>9284389.530218344</v>
       </c>
       <c r="H645">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>9234361.314318344</v>
       </c>
       <c r="H646">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>5797009.803118344</v>
       </c>
       <c r="H647">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>5846885.587618344</v>
       </c>
       <c r="H648">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>5859482.300218345</v>
       </c>
       <c r="H649">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>5836977.748618345</v>
       </c>
       <c r="H650">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>5822208.292118344</v>
       </c>
       <c r="H651">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>6216419.185318344</v>
       </c>
       <c r="H654">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>6170566.060318344</v>
       </c>
       <c r="H655">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>6159700.831518345</v>
       </c>
       <c r="H656">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>6044802.141518344</v>
       </c>
       <c r="H657">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>6158281.226218345</v>
       </c>
       <c r="H658">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>7329907.936818345</v>
       </c>
       <c r="H661">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>7460934.724018345</v>
       </c>
       <c r="H662">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>7464680.877718344</v>
       </c>
       <c r="H663">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>7494578.226518344</v>
       </c>
       <c r="H664">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>7563219.118218344</v>
       </c>
       <c r="H665">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>7538771.915418344</v>
       </c>
       <c r="H666">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>7435707.975518344</v>
       </c>
       <c r="H667">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>7435707.975518344</v>
       </c>
       <c r="H668">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>7435707.975518344</v>
       </c>
       <c r="H669">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>7315219.347618344</v>
       </c>
       <c r="H670">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>7389915.630318345</v>
       </c>
       <c r="H673">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>7369471.730018345</v>
       </c>
       <c r="H674">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>7473410.135818345</v>
       </c>
       <c r="H675">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>7390267.294718345</v>
       </c>
       <c r="H676">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>7390267.294718345</v>
       </c>
       <c r="H677">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>7390267.294718345</v>
       </c>
       <c r="H678">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>7044589.617518346</v>
       </c>
       <c r="H714">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>6963372.974718346</v>
       </c>
       <c r="H717">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>6963372.974718346</v>
       </c>
       <c r="H718">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>6986657.566218346</v>
       </c>
       <c r="H719">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>6980939.390218346</v>
       </c>
       <c r="H720">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>6942011.287118346</v>
       </c>
       <c r="H721">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>6942011.287118346</v>
       </c>
       <c r="H722">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>6898327.991818346</v>
       </c>
       <c r="H723">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>7304708.621642828</v>
       </c>
       <c r="H765">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>7358801.404842828</v>
       </c>
       <c r="H766">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>7358801.404842828</v>
       </c>
       <c r="H767">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>7329608.400842829</v>
       </c>
       <c r="H768">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>7357619.815542828</v>
       </c>
       <c r="H769">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>7343859.883142828</v>
       </c>
       <c r="H770">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>7326943.956842828</v>
       </c>
       <c r="H771">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>7311450.585042828</v>
       </c>
       <c r="H772">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>7311450.585042828</v>
       </c>
       <c r="H773">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>7323798.560142828</v>
       </c>
       <c r="H774">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>7312430.379443501</v>
       </c>
       <c r="H775">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>7301106.478143501</v>
       </c>
       <c r="H776">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>7367820.471943501</v>
       </c>
       <c r="H777">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>7367820.471943501</v>
       </c>
       <c r="H778">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>7358769.672243501</v>
       </c>
       <c r="H779">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>7317677.191443501</v>
       </c>
       <c r="H780">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>7268821.179443501</v>
       </c>
       <c r="H781">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>7268821.179443501</v>
       </c>
       <c r="H782">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>7268821.179443501</v>
       </c>
       <c r="H783">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>7268821.179443501</v>
       </c>
       <c r="H784">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>7268821.179443501</v>
       </c>
       <c r="H785">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>7268821.179443501</v>
       </c>
       <c r="H786">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>7279687.552443501</v>
       </c>
       <c r="H787">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>7260850.854843501</v>
       </c>
       <c r="H788">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>7266369.667643501</v>
       </c>
       <c r="H789">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>7266369.667643501</v>
       </c>
       <c r="H790">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>7266369.667643501</v>
       </c>
       <c r="H791">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>7266369.667643501</v>
       </c>
       <c r="H792">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>7266369.667643501</v>
       </c>
       <c r="H793">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>7266369.667643501</v>
       </c>
       <c r="H794">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>7266369.667643501</v>
       </c>
       <c r="H795">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>7246478.069243502</v>
       </c>
       <c r="H796">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>7263901.455843502</v>
       </c>
       <c r="H797">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>7263901.455843502</v>
       </c>
       <c r="H798">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>7247814.901943502</v>
       </c>
       <c r="H799">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>7267714.102043502</v>
       </c>
       <c r="H800">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>7280687.488543502</v>
       </c>
       <c r="H801">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>7273538.498343502</v>
       </c>
       <c r="H802">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>6425316.929519524</v>
       </c>
       <c r="H911">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>6399914.654619524</v>
       </c>
       <c r="H912">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>6271717.148619524</v>
       </c>
       <c r="H913">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>6148471.712919524</v>
       </c>
       <c r="H914">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>6173659.070219524</v>
       </c>
       <c r="H928">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>6173659.070219524</v>
       </c>
       <c r="H930">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -24650,7 +24650,7 @@
         <v>6173659.070219524</v>
       </c>
       <c r="H933">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>6173659.070219524</v>
       </c>
       <c r="H934">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="935" spans="1:8">
@@ -24702,7 +24702,7 @@
         <v>6234227.233119524</v>
       </c>
       <c r="H935">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="936" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>6213331.522219524</v>
       </c>
       <c r="H936">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -24754,7 +24754,7 @@
         <v>6258195.479519524</v>
       </c>
       <c r="H937">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -24780,7 +24780,7 @@
         <v>6262905.861319523</v>
       </c>
       <c r="H938">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>6542215.940757119</v>
       </c>
       <c r="H939">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>6505754.854294715</v>
       </c>
       <c r="H940">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -24858,7 +24858,7 @@
         <v>6505754.854294715</v>
       </c>
       <c r="H941">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>6505754.854294715</v>
       </c>
       <c r="H942">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>6500363.855594715</v>
       </c>
       <c r="H943">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -24936,7 +24936,7 @@
         <v>6271158.408194715</v>
       </c>
       <c r="H944">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="945" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>6254342.976394715</v>
       </c>
       <c r="H945">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -32606,7 +32606,7 @@
         <v>3453248.038807133</v>
       </c>
       <c r="H1239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1240" spans="1:8">
@@ -32632,7 +32632,7 @@
         <v>3516943.855707133</v>
       </c>
       <c r="H1240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1241" spans="1:8">
@@ -32658,7 +32658,7 @@
         <v>3533574.986307133</v>
       </c>
       <c r="H1241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1242" spans="1:8">
@@ -32684,7 +32684,7 @@
         <v>3546442.352007133</v>
       </c>
       <c r="H1242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1243" spans="1:8">
@@ -32710,7 +32710,7 @@
         <v>3529198.642907133</v>
       </c>
       <c r="H1243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1244" spans="1:8">
@@ -32736,7 +32736,7 @@
         <v>3511857.714107133</v>
       </c>
       <c r="H1244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1245" spans="1:8">
@@ -32762,7 +32762,7 @@
         <v>3619419.288607133</v>
       </c>
       <c r="H1245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1246" spans="1:8">
@@ -32788,7 +32788,7 @@
         <v>3375371.530607133</v>
       </c>
       <c r="H1246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1247" spans="1:8">
@@ -32814,7 +32814,7 @@
         <v>3166562.424207133</v>
       </c>
       <c r="H1247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1248" spans="1:8">
@@ -33386,7 +33386,7 @@
         <v>3528106.473007133</v>
       </c>
       <c r="H1269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1270" spans="1:8">
@@ -33412,7 +33412,7 @@
         <v>3414106.021707133</v>
       </c>
       <c r="H1270">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1271" spans="1:8">
@@ -33464,7 +33464,7 @@
         <v>3399391.547707133</v>
       </c>
       <c r="H1272">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1273" spans="1:8">
@@ -33516,7 +33516,7 @@
         <v>3399391.547707133</v>
       </c>
       <c r="H1274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1275" spans="1:8">
@@ -33542,7 +33542,7 @@
         <v>3442961.448907133</v>
       </c>
       <c r="H1275">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1276" spans="1:8">
@@ -33568,7 +33568,7 @@
         <v>3418605.915307133</v>
       </c>
       <c r="H1276">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1277" spans="1:8">
@@ -33594,7 +33594,7 @@
         <v>3393284.438507133</v>
       </c>
       <c r="H1277">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1278" spans="1:8">
@@ -33620,7 +33620,7 @@
         <v>3409563.351407133</v>
       </c>
       <c r="H1278">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1279" spans="1:8">
@@ -33646,7 +33646,7 @@
         <v>3694453.172307133</v>
       </c>
       <c r="H1279">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1280" spans="1:8">
